--- a/biology/Botanique/Solanum_cheesmaniae/Solanum_cheesmaniae.xlsx
+++ b/biology/Botanique/Solanum_cheesmaniae/Solanum_cheesmaniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum cheesmaniae, la tomate des Galapagos, est une espèce de plantes de la famille des Solanaceae, endémique des îles Galápagos. C'est une variété de tomate sauvage aux petits fruits jaunes ou orange à maturité.
 Cette espèce est souvent confondue avec Solanum Galapagense, qui possède un feuillage malodorant, un port plus buissonnant et des fruits plus poilus, orange, de petite taille également. Elle est également confondue avec certains hybrides naturels qui lui ressemblent en raison de l'introduction de tomates domestiques dans les îles Galapagos et de leur hybridation avec les variétés sauvages.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace, herbacée, qui atteint une hauteur de 1 à 2.5 mètres. Comme pour Solanum lycopersicum (tomate cultivée), son port est dressé en début de croissance, pour retomber par la suite si la plante n'est pas soutenue par un tuteur. Les tiges, d'un diamètre de 8 à 12 millimètres, deviennent ligneuses à la base de la plante au cours de la croissance de celle-ci. La plante est couverte d'un pelage dense constitué de trichomes simples et glandulaires.
 Son fruit est jaune à orange, de 2 à 2.5 cm et se termine parfois par un petit téton, à la saveur épicée et sucrée avec une chair croquante et riche en jus. Variété précoce et résistante aux maladies.
@@ -547,7 +561,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lycopersicon cheesmaniae L. Riley.
 Solanum Cheesmanii
